--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnfsf8</t>
+  </si>
+  <si>
+    <t>Tnfrsf8</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnfsf8</t>
-  </si>
-  <si>
-    <t>Tnfrsf8</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1126785</v>
+        <v>0.2493586666666666</v>
       </c>
       <c r="H2">
-        <v>0.225357</v>
+        <v>0.748076</v>
       </c>
       <c r="I2">
-        <v>0.04671387543146202</v>
+        <v>0.3217687569331327</v>
       </c>
       <c r="J2">
-        <v>0.03163518430730224</v>
+        <v>0.3279724636340479</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.466323</v>
+        <v>1.3351195</v>
       </c>
       <c r="N2">
-        <v>0.9326460000000001</v>
+        <v>2.670239</v>
       </c>
       <c r="O2">
-        <v>0.3684202348566448</v>
+        <v>0.2791992487598441</v>
       </c>
       <c r="P2">
-        <v>0.2799992914800172</v>
+        <v>0.2052331458910276</v>
       </c>
       <c r="Q2">
-        <v>0.05254457615550001</v>
+        <v>0.3329236183606666</v>
       </c>
       <c r="R2">
-        <v>0.210178304622</v>
+        <v>1.997541710164</v>
       </c>
       <c r="S2">
-        <v>0.01721033695752329</v>
+        <v>0.08983759521011954</v>
       </c>
       <c r="T2">
-        <v>0.008857829191884386</v>
+        <v>0.06731082047724629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1126785</v>
+        <v>0.2493586666666666</v>
       </c>
       <c r="H3">
-        <v>0.225357</v>
+        <v>0.748076</v>
       </c>
       <c r="I3">
-        <v>0.04671387543146202</v>
+        <v>0.3217687569331327</v>
       </c>
       <c r="J3">
-        <v>0.03163518430730224</v>
+        <v>0.3279724636340479</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1617183333333333</v>
+        <v>0.4829693333333333</v>
       </c>
       <c r="N3">
-        <v>0.485155</v>
+        <v>1.448908</v>
       </c>
       <c r="O3">
-        <v>0.1277661756921529</v>
+        <v>0.1009982065580717</v>
       </c>
       <c r="P3">
-        <v>0.14565339502661</v>
+        <v>0.1113622963887041</v>
       </c>
       <c r="Q3">
-        <v>0.0182221792225</v>
+        <v>0.1204325890008889</v>
       </c>
       <c r="R3">
-        <v>0.109333075335</v>
+        <v>1.083893301008</v>
       </c>
       <c r="S3">
-        <v>0.005968453215637521</v>
+        <v>0.0324980673766665</v>
       </c>
       <c r="T3">
-        <v>0.004607771996651107</v>
+        <v>0.03652376670254833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1126785</v>
+        <v>0.2493586666666666</v>
       </c>
       <c r="H4">
-        <v>0.225357</v>
+        <v>0.748076</v>
       </c>
       <c r="I4">
-        <v>0.04671387543146202</v>
+        <v>0.3217687569331327</v>
       </c>
       <c r="J4">
-        <v>0.03163518430730224</v>
+        <v>0.3279724636340479</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,42 +685,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6376953333333333</v>
+        <v>2.924543333333334</v>
       </c>
       <c r="N4">
-        <v>1.913086</v>
+        <v>8.773630000000001</v>
       </c>
       <c r="O4">
-        <v>0.5038135894512022</v>
+        <v>0.6115784404559121</v>
       </c>
       <c r="P4">
-        <v>0.5743473134933728</v>
+        <v>0.6743365241028598</v>
       </c>
       <c r="Q4">
-        <v>0.07185455361700001</v>
+        <v>0.729260226208889</v>
       </c>
       <c r="R4">
-        <v>0.431127321702</v>
+        <v>6.56334203588</v>
       </c>
       <c r="S4">
-        <v>0.02353508525830121</v>
+        <v>0.1967868345526027</v>
       </c>
       <c r="T4">
-        <v>0.01816958311876674</v>
+        <v>0.2211638111284355</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,40 +735,40 @@
         <v>0.748076</v>
       </c>
       <c r="I5">
-        <v>0.1033782815037663</v>
+        <v>0.3217687569331327</v>
       </c>
       <c r="J5">
-        <v>0.1050134769981382</v>
+        <v>0.3279724636340479</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.466323</v>
+        <v>0.03932733333333333</v>
       </c>
       <c r="N5">
-        <v>0.9326460000000001</v>
+        <v>0.117982</v>
       </c>
       <c r="O5">
-        <v>0.3684202348566448</v>
+        <v>0.008224104226171997</v>
       </c>
       <c r="P5">
-        <v>0.2799992914800172</v>
+        <v>0.009068033617408485</v>
       </c>
       <c r="Q5">
-        <v>0.116281681516</v>
+        <v>0.009806611403555555</v>
       </c>
       <c r="R5">
-        <v>0.6976900890960001</v>
+        <v>0.088259502632</v>
       </c>
       <c r="S5">
-        <v>0.0380866507506939</v>
+        <v>0.002646259793743886</v>
       </c>
       <c r="T5">
-        <v>0.02940369915533177</v>
+        <v>0.002974065325817829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.3296663333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.988999</v>
+      </c>
+      <c r="I6">
+        <v>0.4253965891675596</v>
+      </c>
+      <c r="J6">
+        <v>0.4335982421058954</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.2493586666666666</v>
-      </c>
-      <c r="H6">
-        <v>0.748076</v>
-      </c>
-      <c r="I6">
-        <v>0.1033782815037663</v>
-      </c>
-      <c r="J6">
-        <v>0.1050134769981382</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1617183333333333</v>
+        <v>1.3351195</v>
       </c>
       <c r="N6">
-        <v>0.485155</v>
+        <v>2.670239</v>
       </c>
       <c r="O6">
-        <v>0.1277661756921529</v>
+        <v>0.2791992487598441</v>
       </c>
       <c r="P6">
-        <v>0.14565339502661</v>
+        <v>0.2052331458910276</v>
       </c>
       <c r="Q6">
-        <v>0.04032586797555555</v>
+        <v>0.4401439501268333</v>
       </c>
       <c r="R6">
-        <v>0.36293281178</v>
+        <v>2.640863700761</v>
       </c>
       <c r="S6">
-        <v>0.01320824767736304</v>
+        <v>0.1187704081205827</v>
       </c>
       <c r="T6">
-        <v>0.01529556944832764</v>
+        <v>0.08898873128021231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,155 +838,155 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.3296663333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.988999</v>
+      </c>
+      <c r="I7">
+        <v>0.4253965891675596</v>
+      </c>
+      <c r="J7">
+        <v>0.4335982421058954</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.2493586666666666</v>
-      </c>
-      <c r="H7">
-        <v>0.748076</v>
-      </c>
-      <c r="I7">
-        <v>0.1033782815037663</v>
-      </c>
-      <c r="J7">
-        <v>0.1050134769981382</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>0.6376953333333333</v>
+        <v>0.4829693333333333</v>
       </c>
       <c r="N7">
-        <v>1.913086</v>
+        <v>1.448908</v>
       </c>
       <c r="O7">
-        <v>0.5038135894512022</v>
+        <v>0.1009982065580717</v>
       </c>
       <c r="P7">
-        <v>0.5743473134933728</v>
+        <v>0.1113622963887041</v>
       </c>
       <c r="Q7">
-        <v>0.1590148580595555</v>
+        <v>0.1592187292324444</v>
       </c>
       <c r="R7">
-        <v>1.431133722536</v>
+        <v>1.432968563092</v>
       </c>
       <c r="S7">
-        <v>0.0520833830757093</v>
+        <v>0.04296429258184435</v>
       </c>
       <c r="T7">
-        <v>0.06031420839447875</v>
+        <v>0.04828649595101781</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.3296663333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.988999</v>
+      </c>
+      <c r="I8">
+        <v>0.4253965891675596</v>
+      </c>
+      <c r="J8">
+        <v>0.4335982421058954</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.7206493333333334</v>
-      </c>
-      <c r="H8">
-        <v>2.161948</v>
-      </c>
-      <c r="I8">
-        <v>0.2987643888328251</v>
-      </c>
-      <c r="J8">
-        <v>0.3034901220854176</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.466323</v>
+        <v>2.924543333333334</v>
       </c>
       <c r="N8">
-        <v>0.9326460000000001</v>
+        <v>8.773630000000001</v>
       </c>
       <c r="O8">
-        <v>0.3684202348566448</v>
+        <v>0.6115784404559121</v>
       </c>
       <c r="P8">
-        <v>0.2799992914800172</v>
+        <v>0.6743365241028598</v>
       </c>
       <c r="Q8">
-        <v>0.336055359068</v>
+        <v>0.9641234773744446</v>
       </c>
       <c r="R8">
-        <v>2.016332154408</v>
+        <v>8.677111296370001</v>
       </c>
       <c r="S8">
-        <v>0.1100708463005914</v>
+        <v>0.2601633825783605</v>
       </c>
       <c r="T8">
-        <v>0.08497701915510085</v>
+        <v>0.2923911314387997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.7206493333333334</v>
+        <v>0.3296663333333333</v>
       </c>
       <c r="H9">
-        <v>2.161948</v>
+        <v>0.988999</v>
       </c>
       <c r="I9">
-        <v>0.2987643888328251</v>
+        <v>0.4253965891675596</v>
       </c>
       <c r="J9">
-        <v>0.3034901220854176</v>
+        <v>0.4335982421058954</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1617183333333333</v>
+        <v>0.03932733333333333</v>
       </c>
       <c r="N9">
-        <v>0.485155</v>
+        <v>0.117982</v>
       </c>
       <c r="O9">
-        <v>0.1277661756921529</v>
+        <v>0.008224104226171997</v>
       </c>
       <c r="P9">
-        <v>0.14565339502661</v>
+        <v>0.009068033617408485</v>
       </c>
       <c r="Q9">
-        <v>0.1165422091044444</v>
+        <v>0.01296489777977778</v>
       </c>
       <c r="R9">
-        <v>1.04887988194</v>
+        <v>0.116684080018</v>
       </c>
       <c r="S9">
-        <v>0.03817198339417342</v>
+        <v>0.00349850588677208</v>
       </c>
       <c r="T9">
-        <v>0.04420436663878144</v>
+        <v>0.003931883435865482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,247 +1024,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.7206493333333334</v>
+        <v>0.043976</v>
       </c>
       <c r="H10">
-        <v>2.161948</v>
+        <v>0.087952</v>
       </c>
       <c r="I10">
-        <v>0.2987643888328251</v>
+        <v>0.05674598378329786</v>
       </c>
       <c r="J10">
-        <v>0.3034901220854176</v>
+        <v>0.03856003149618727</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6376953333333333</v>
+        <v>1.3351195</v>
       </c>
       <c r="N10">
-        <v>1.913086</v>
+        <v>2.670239</v>
       </c>
       <c r="O10">
-        <v>0.5038135894512022</v>
+        <v>0.2791992487598441</v>
       </c>
       <c r="P10">
-        <v>0.5743473134933728</v>
+        <v>0.2052331458910276</v>
       </c>
       <c r="Q10">
-        <v>0.4595547168364444</v>
+        <v>0.058713215132</v>
       </c>
       <c r="R10">
-        <v>4.135992451528</v>
+        <v>0.234852860528</v>
       </c>
       <c r="S10">
-        <v>0.1505215591380603</v>
+        <v>0.01584343604243506</v>
       </c>
       <c r="T10">
-        <v>0.1743087362915353</v>
+        <v>0.00791379656961962</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>1.329412666666667</v>
+        <v>0.043976</v>
       </c>
       <c r="H11">
-        <v>3.988238</v>
+        <v>0.087952</v>
       </c>
       <c r="I11">
-        <v>0.5511434542319467</v>
+        <v>0.05674598378329786</v>
       </c>
       <c r="J11">
-        <v>0.5598612166091421</v>
+        <v>0.03856003149618727</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.466323</v>
+        <v>0.4829693333333333</v>
       </c>
       <c r="N11">
-        <v>0.9326460000000001</v>
+        <v>1.448908</v>
       </c>
       <c r="O11">
-        <v>0.3684202348566448</v>
+        <v>0.1009982065580717</v>
       </c>
       <c r="P11">
-        <v>0.2799992914800172</v>
+        <v>0.1113622963887041</v>
       </c>
       <c r="Q11">
-        <v>0.619935702958</v>
+        <v>0.02123905940266667</v>
       </c>
       <c r="R11">
-        <v>3.719614217748</v>
+        <v>0.127434356416</v>
       </c>
       <c r="S11">
-        <v>0.2030524008478362</v>
+        <v>0.005731242591486504</v>
       </c>
       <c r="T11">
-        <v>0.1567607439777003</v>
+        <v>0.004294133656236173</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.043976</v>
+      </c>
+      <c r="H12">
+        <v>0.087952</v>
+      </c>
+      <c r="I12">
+        <v>0.05674598378329786</v>
+      </c>
+      <c r="J12">
+        <v>0.03856003149618727</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.329412666666667</v>
-      </c>
-      <c r="H12">
-        <v>3.988238</v>
-      </c>
-      <c r="I12">
-        <v>0.5511434542319467</v>
-      </c>
-      <c r="J12">
-        <v>0.5598612166091421</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1617183333333333</v>
+        <v>2.924543333333334</v>
       </c>
       <c r="N12">
-        <v>0.485155</v>
+        <v>8.773630000000001</v>
       </c>
       <c r="O12">
-        <v>0.1277661756921529</v>
+        <v>0.6115784404559121</v>
       </c>
       <c r="P12">
-        <v>0.14565339502661</v>
+        <v>0.6743365241028598</v>
       </c>
       <c r="Q12">
-        <v>0.2149904007655555</v>
+        <v>0.1286097176266667</v>
       </c>
       <c r="R12">
-        <v>1.93491360689</v>
+        <v>0.7716583057600001</v>
       </c>
       <c r="S12">
-        <v>0.07041749140497892</v>
+        <v>0.03470462026432578</v>
       </c>
       <c r="T12">
-        <v>0.08154568694284986</v>
+        <v>0.02600243760843572</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.043976</v>
+      </c>
+      <c r="H13">
+        <v>0.087952</v>
+      </c>
+      <c r="I13">
+        <v>0.05674598378329786</v>
+      </c>
+      <c r="J13">
+        <v>0.03856003149618727</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03932733333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.117982</v>
+      </c>
+      <c r="O13">
+        <v>0.008224104226171997</v>
+      </c>
+      <c r="P13">
+        <v>0.009068033617408485</v>
+      </c>
+      <c r="Q13">
+        <v>0.001729458810666667</v>
+      </c>
+      <c r="R13">
+        <v>0.010376752864</v>
+      </c>
+      <c r="S13">
+        <v>0.0004666848850505075</v>
+      </c>
+      <c r="T13">
+        <v>0.0003496636618957561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05299466666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.158984</v>
+      </c>
+      <c r="I14">
+        <v>0.06838353864080275</v>
+      </c>
+      <c r="J14">
+        <v>0.06970197434270779</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.3351195</v>
+      </c>
+      <c r="N14">
+        <v>2.670239</v>
+      </c>
+      <c r="O14">
+        <v>0.2791992487598441</v>
+      </c>
+      <c r="P14">
+        <v>0.2052331458910276</v>
+      </c>
+      <c r="Q14">
+        <v>0.07075421286266666</v>
+      </c>
+      <c r="R14">
+        <v>0.424525277176</v>
+      </c>
+      <c r="S14">
+        <v>0.0190926326160519</v>
+      </c>
+      <c r="T14">
+        <v>0.01430515546916961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05299466666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.158984</v>
+      </c>
+      <c r="I15">
+        <v>0.06838353864080275</v>
+      </c>
+      <c r="J15">
+        <v>0.06970197434270779</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.4829693333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.448908</v>
+      </c>
+      <c r="O15">
+        <v>0.1009982065580717</v>
+      </c>
+      <c r="P15">
+        <v>0.1113622963887041</v>
+      </c>
+      <c r="Q15">
+        <v>0.02559479883022222</v>
+      </c>
+      <c r="R15">
+        <v>0.230353189472</v>
+      </c>
+      <c r="S15">
+        <v>0.006906614760815675</v>
+      </c>
+      <c r="T15">
+        <v>0.007762171925630477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05299466666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.158984</v>
+      </c>
+      <c r="I16">
+        <v>0.06838353864080275</v>
+      </c>
+      <c r="J16">
+        <v>0.06970197434270779</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.924543333333334</v>
+      </c>
+      <c r="N16">
+        <v>8.773630000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.6115784404559121</v>
+      </c>
+      <c r="P16">
+        <v>0.6743365241028598</v>
+      </c>
+      <c r="Q16">
+        <v>0.1549851991022222</v>
+      </c>
+      <c r="R16">
+        <v>1.39486679192</v>
+      </c>
+      <c r="S16">
+        <v>0.04182189791479875</v>
+      </c>
+      <c r="T16">
+        <v>0.04700258710136829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05299466666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.158984</v>
+      </c>
+      <c r="I17">
+        <v>0.06838353864080275</v>
+      </c>
+      <c r="J17">
+        <v>0.06970197434270779</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03932733333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.117982</v>
+      </c>
+      <c r="O17">
+        <v>0.008224104226171997</v>
+      </c>
+      <c r="P17">
+        <v>0.009068033617408485</v>
+      </c>
+      <c r="Q17">
+        <v>0.002084138920888889</v>
+      </c>
+      <c r="R17">
+        <v>0.018757250288</v>
+      </c>
+      <c r="S17">
+        <v>0.000562393349136422</v>
+      </c>
+      <c r="T17">
+        <v>0.0006320598465394179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.09896666666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.2969</v>
+      </c>
+      <c r="I18">
+        <v>0.1277051314752072</v>
+      </c>
+      <c r="J18">
+        <v>0.1301672884211615</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.3351195</v>
+      </c>
+      <c r="N18">
+        <v>2.670239</v>
+      </c>
+      <c r="O18">
+        <v>0.2791992487598441</v>
+      </c>
+      <c r="P18">
+        <v>0.2052331458910276</v>
+      </c>
+      <c r="Q18">
+        <v>0.1321323265166666</v>
+      </c>
+      <c r="R18">
+        <v>0.7927939591000001</v>
+      </c>
+      <c r="S18">
+        <v>0.03565517677065497</v>
+      </c>
+      <c r="T18">
+        <v>0.02671464209477971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.09896666666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.2969</v>
+      </c>
+      <c r="I19">
+        <v>0.1277051314752072</v>
+      </c>
+      <c r="J19">
+        <v>0.1301672884211615</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.4829693333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.448908</v>
+      </c>
+      <c r="O19">
+        <v>0.1009982065580717</v>
+      </c>
+      <c r="P19">
+        <v>0.1113622963887041</v>
+      </c>
+      <c r="Q19">
+        <v>0.04779786502222222</v>
+      </c>
+      <c r="R19">
+        <v>0.4301807852</v>
+      </c>
+      <c r="S19">
+        <v>0.01289798924725868</v>
+      </c>
+      <c r="T19">
+        <v>0.01449572815327133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.09896666666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.2969</v>
+      </c>
+      <c r="I20">
+        <v>0.1277051314752072</v>
+      </c>
+      <c r="J20">
+        <v>0.1301672884211615</v>
+      </c>
+      <c r="K20">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.329412666666667</v>
-      </c>
-      <c r="H13">
-        <v>3.988238</v>
-      </c>
-      <c r="I13">
-        <v>0.5511434542319467</v>
-      </c>
-      <c r="J13">
-        <v>0.5598612166091421</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.6376953333333333</v>
-      </c>
-      <c r="N13">
-        <v>1.913086</v>
-      </c>
-      <c r="O13">
-        <v>0.5038135894512022</v>
-      </c>
-      <c r="P13">
-        <v>0.5743473134933728</v>
-      </c>
-      <c r="Q13">
-        <v>0.8477602536075555</v>
-      </c>
-      <c r="R13">
-        <v>7.629842282467999</v>
-      </c>
-      <c r="S13">
-        <v>0.2776735619791315</v>
-      </c>
-      <c r="T13">
-        <v>0.321554785688592</v>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.924543333333334</v>
+      </c>
+      <c r="N20">
+        <v>8.773630000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.6115784404559121</v>
+      </c>
+      <c r="P20">
+        <v>0.6743365241028598</v>
+      </c>
+      <c r="Q20">
+        <v>0.2894323052222222</v>
+      </c>
+      <c r="R20">
+        <v>2.604890747</v>
+      </c>
+      <c r="S20">
+        <v>0.07810170514582443</v>
+      </c>
+      <c r="T20">
+        <v>0.0877765568258205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.09896666666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.2969</v>
+      </c>
+      <c r="I21">
+        <v>0.1277051314752072</v>
+      </c>
+      <c r="J21">
+        <v>0.1301672884211615</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.03932733333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.117982</v>
+      </c>
+      <c r="O21">
+        <v>0.008224104226171997</v>
+      </c>
+      <c r="P21">
+        <v>0.009068033617408485</v>
+      </c>
+      <c r="Q21">
+        <v>0.003892095088888888</v>
+      </c>
+      <c r="R21">
+        <v>0.0350288558</v>
+      </c>
+      <c r="S21">
+        <v>0.001050260311469102</v>
+      </c>
+      <c r="T21">
+        <v>0.001180361347289999</v>
       </c>
     </row>
   </sheetData>
